--- a/public/templates/template_dashboard_data.xlsx
+++ b/public/templates/template_dashboard_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>RenstraID</t>
   </si>
@@ -47,24 +47,30 @@
     <t>Renstra 2025 -2029</t>
   </si>
   <si>
+    <t>PilarID</t>
+  </si>
+  <si>
     <t>knhbdgs1</t>
   </si>
   <si>
     <t>pilar1</t>
   </si>
   <si>
-    <t>PilarID</t>
+    <t>IsuStrategisID</t>
   </si>
   <si>
     <t>dsds</t>
   </si>
   <si>
-    <t>IsuStrategisID</t>
+    <t>ProgramPengembanganID</t>
   </si>
   <si>
     <t>sdsds</t>
   </si>
   <si>
+    <t>IndikatorKinerjaID</t>
+  </si>
+  <si>
     <t>SatuanID</t>
   </si>
   <si>
@@ -131,10 +137,7 @@
     <t>i87</t>
   </si>
   <si>
-    <t>ProgramPengembanganID</t>
-  </si>
-  <si>
-    <t>IndikatorKinerjaID</t>
+    <t>ProgramRektorID</t>
   </si>
   <si>
     <t>Output</t>
@@ -203,7 +206,7 @@
     <t>g</t>
   </si>
   <si>
-    <t>ProgramRektorID</t>
+    <t>KegiatanID</t>
   </si>
   <si>
     <t>Tanggal Mulai</t>
@@ -242,7 +245,7 @@
     <t>2025-05-08</t>
   </si>
   <si>
-    <t>2025-06-02</t>
+    <t>2025-06-18</t>
   </si>
   <si>
     <t>a
@@ -283,13 +286,70 @@
     <t>2025-05-22</t>
   </si>
   <si>
+    <t>yuki</t>
+  </si>
+  <si>
+    <t>knbhbh</t>
+  </si>
+  <si>
+    <t>2025-05-27</t>
+  </si>
+  <si>
     <t>dmnjd</t>
   </si>
   <si>
-    <t>knbhbh</t>
-  </si>
-  <si>
-    <t>2025-05-27</t>
+    <t>kegiatan 2</t>
+  </si>
+  <si>
+    <t>2025-06-03</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>2025-06-24</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>sed</t>
+  </si>
+  <si>
+    <t>2025-06-11</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>sdd</t>
+  </si>
+  <si>
+    <t>2025-06-25</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>we4467</t>
+  </si>
+  <si>
+    <t>2025-06-06</t>
+  </si>
+  <si>
+    <t>sdc</t>
   </si>
 </sst>
 </file>
@@ -668,10 +728,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:E7"/>
+      <selection activeCell="A1" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -731,74 +791,6 @@
         <v>2029</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>45</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2025</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2027</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>46</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2025</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2029</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>47</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2025</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2027</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>48</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2025</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2029</v>
-      </c>
-      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -823,93 +815,115 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:C7"/>
+      <selection activeCell="A1" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10.426" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="11.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10.426" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
+      <c r="B2" s="3">
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -934,60 +948,73 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:C4"/>
+      <selection activeCell="A1" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10.426" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="19.852" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="11.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10.426" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
+      <c r="B2" s="3">
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1012,60 +1039,73 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:C4"/>
+      <selection activeCell="A1" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.852" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10.426" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="19.852" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10.426" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
+      <c r="B2" s="3">
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1090,166 +1130,176 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:M10"/>
+      <selection activeCell="A1" sqref="A1:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="24.565" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="11.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="26.993" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="10.426" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="11.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="26.993" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="10.426" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
+      <c r="B2" s="3">
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>32</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2">
         <v>4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>4</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3</v>
       </c>
       <c r="H3" s="2">
         <v>3</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>28</v>
+      <c r="I3" s="2">
+        <v>3</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2">
         <v>76</v>
       </c>
-      <c r="E4" s="2">
-        <v>6</v>
-      </c>
       <c r="F4" s="2">
         <v>6</v>
       </c>
@@ -1259,31 +1309,34 @@
       <c r="H4" s="2">
         <v>6</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
+      <c r="I4" s="2">
+        <v>6</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
         <v>2</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1300,220 +1353,194 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>28</v>
+      <c r="I5" s="2">
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>32</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>4</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3</v>
       </c>
       <c r="H6" s="2">
         <v>3</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3">
         <v>28</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>76</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="3">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>76</v>
-      </c>
-      <c r="E7" s="2">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2">
-        <v>6</v>
-      </c>
-      <c r="H7" s="2">
-        <v>6</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2">
-        <v>2</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>4</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>3</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>4</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3</v>
       </c>
       <c r="H9" s="2">
         <v>3</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>28</v>
+      <c r="I9" s="2">
+        <v>3</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="2">
-        <v>76</v>
-      </c>
-      <c r="E10" s="2">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
-        <v>2</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="M9" s="2"/>
+      <c r="N9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1538,42 +1565,43 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:N11"/>
+      <selection activeCell="A1" sqref="A1:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28.136" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="24.565" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.426" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="19.852" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="20.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="11.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="23.423" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="16.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="10.426" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="20.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="24.565" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10.426" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="20.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="19.852" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="20.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="11.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="23.423" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="16.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="10.426" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>39</v>
@@ -1588,10 +1616,10 @@
         <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>44</v>
@@ -1603,18 +1631,21 @@
         <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>47</v>
+      <c r="C2" s="3">
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>48</v>
@@ -1622,43 +1653,46 @@
       <c r="E2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="3">
-        <v>1</v>
+      <c r="F2" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
       <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
         <v>23</v>
       </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
       <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
         <v>234000</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>5382000</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>75</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>33</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>50</v>
+      <c r="C3" s="3">
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>51</v>
@@ -1666,40 +1700,43 @@
       <c r="E3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
+      <c r="F3" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
         <v>3</v>
       </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
       <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
         <v>888</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>2664</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>90</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>44</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>54</v>
@@ -1710,43 +1747,46 @@
       <c r="E4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
+      <c r="F4" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
         <v>345</v>
       </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
       <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
         <v>6776</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>2337720</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>90</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>75</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>58</v>
@@ -1754,39 +1794,42 @@
       <c r="E5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
+      <c r="F5" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
         <v>34</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
       <c r="K5" s="2"/>
-      <c r="L5" s="2">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2">
         <v>75</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>33</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>47</v>
+      <c r="C6" s="3">
+        <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>48</v>
@@ -1794,43 +1837,46 @@
       <c r="E6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
+      <c r="F6" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
         <v>23</v>
       </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
       <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
         <v>234000</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>5382000</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>75</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>33</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>50</v>
+      <c r="C7" s="3">
+        <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>51</v>
@@ -1838,40 +1884,43 @@
       <c r="E7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
+      <c r="F7" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
         <v>3</v>
       </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
       <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
         <v>888</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>2664</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>90</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>54</v>
@@ -1882,43 +1931,46 @@
       <c r="E8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
+      <c r="F8" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
         <v>345</v>
       </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
       <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
         <v>6776</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>2337720</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>90</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>75</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>47</v>
+      <c r="C9" s="3">
+        <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>48</v>
@@ -1926,43 +1978,46 @@
       <c r="E9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
+      <c r="F9" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
         <v>23</v>
       </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
       <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
         <v>234000</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>5382000</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>75</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>33</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>50</v>
+      <c r="C10" s="3">
+        <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>51</v>
@@ -1970,40 +2025,43 @@
       <c r="E10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
+      <c r="F10" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
         <v>3</v>
       </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
       <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
         <v>888</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>2664</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>90</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>44</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>54</v>
@@ -2014,31 +2072,34 @@
       <c r="E11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
+      <c r="F11" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
       <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
         <v>345</v>
       </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
       <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
         <v>6776</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>2337720</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>90</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>75</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2063,33 +2124,34 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H19"/>
+      <selection activeCell="A1" sqref="A1:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="20.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="23.423" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="10.426" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="23.423" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="10.426" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>62</v>
@@ -2104,15 +2166,18 @@
         <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>67</v>
@@ -2126,41 +2191,47 @@
       <c r="F2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="G2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="G3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>75</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>76</v>
@@ -2169,96 +2240,108 @@
         <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" s="2"/>
+      <c r="I4" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>83</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>67</v>
@@ -2272,41 +2355,47 @@
       <c r="F8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="G8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>71</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>76</v>
@@ -2315,96 +2404,108 @@
         <v>77</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" s="2"/>
+      <c r="I10" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>23</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>83</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="3">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3">
         <v>3</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>67</v>
@@ -2418,41 +2519,47 @@
       <c r="F14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="G14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="3">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>71</v>
+        <v>27</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>75</v>
+      <c r="B16" s="3">
+        <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>76</v>
@@ -2461,88 +2568,235 @@
         <v>77</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" s="2"/>
+      <c r="I16" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>29</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>83</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="3">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="3">
+        <v>32</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="3">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="3">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="3">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="3">
+        <v>36</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
